--- a/Work/InterComparision.xlsx
+++ b/Work/InterComparision.xlsx
@@ -1293,8 +1293,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="297614720"/>
-        <c:axId val="297629184"/>
+        <c:axId val="127555072"/>
+        <c:axId val="127556992"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1530,11 +1530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297614720"/>
-        <c:axId val="297629184"/>
+        <c:axId val="127555072"/>
+        <c:axId val="127556992"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="297614720"/>
+        <c:axId val="127555072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,7 +1551,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Modular number</a:t>
+                  <a:t>Modular Name</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -1563,7 +1563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297629184"/>
+        <c:crossAx val="127556992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,7 +1571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297629184"/>
+        <c:axId val="127556992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1603,7 +1603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297614720"/>
+        <c:crossAx val="127555072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -1679,7 +1679,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1779,8 +1778,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="303313664"/>
-        <c:axId val="303315584"/>
+        <c:axId val="127625472"/>
+        <c:axId val="127631744"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1857,11 +1856,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303313664"/>
-        <c:axId val="303315584"/>
+        <c:axId val="127625472"/>
+        <c:axId val="127631744"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="303313664"/>
+        <c:axId val="127625472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,13 +1898,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303315584"/>
+        <c:crossAx val="127631744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1913,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303315584"/>
+        <c:axId val="127631744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.15000000000000002"/>
@@ -1951,14 +1949,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303313664"/>
+        <c:crossAx val="127625472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="3.0000000000000006E-2"/>
@@ -2012,7 +2009,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2100,8 +2096,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="303352832"/>
-        <c:axId val="303359104"/>
+        <c:axId val="127652608"/>
+        <c:axId val="127654528"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2172,11 +2168,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="304030464"/>
-        <c:axId val="303361024"/>
+        <c:axId val="146651392"/>
+        <c:axId val="146649856"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="303352832"/>
+        <c:axId val="127652608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,13 +2199,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303359104"/>
+        <c:crossAx val="127654528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2217,7 +2212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303359104"/>
+        <c:axId val="127654528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5000000000000003E-2"/>
@@ -2247,20 +2242,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303352832"/>
+        <c:crossAx val="127652608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-3"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303361024"/>
+        <c:axId val="146649856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,12 +2264,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="304030464"/>
+        <c:crossAx val="146651392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304030464"/>
+        <c:axId val="146651392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,7 +2278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303361024"/>
+        <c:crossAx val="146649856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2333,7 +2327,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2536,8 +2529,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="304091520"/>
-        <c:axId val="304093440"/>
+        <c:axId val="175703936"/>
+        <c:axId val="175714304"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2666,11 +2659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="304091520"/>
-        <c:axId val="304093440"/>
+        <c:axId val="175703936"/>
+        <c:axId val="175714304"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="304091520"/>
+        <c:axId val="175703936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2693,13 +2686,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="304093440"/>
+        <c:crossAx val="175714304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2707,7 +2699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304093440"/>
+        <c:axId val="175714304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2733,14 +2725,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="304091520"/>
+        <c:crossAx val="175703936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2756,7 +2747,6 @@
         <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2806,7 +2796,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3101,8 +3090,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="302950656"/>
-        <c:axId val="303022464"/>
+        <c:axId val="176023808"/>
+        <c:axId val="176443776"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3340,11 +3329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302776320"/>
-        <c:axId val="303024384"/>
+        <c:axId val="176447488"/>
+        <c:axId val="176445696"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="302950656"/>
+        <c:axId val="176023808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,13 +3356,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303022464"/>
+        <c:crossAx val="176443776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3381,7 +3369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303022464"/>
+        <c:axId val="176443776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -3410,20 +3398,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302950656"/>
+        <c:crossAx val="176023808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303024384"/>
+        <c:axId val="176445696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,12 +3420,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302776320"/>
+        <c:crossAx val="176447488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302776320"/>
+        <c:axId val="176447488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3447,7 +3434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303024384"/>
+        <c:crossAx val="176445696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3466,7 +3453,6 @@
         <c:idx val="8"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6558,7 +6544,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
